--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celeste/Desktop/Análisis de biosistemas/IIQ3733 Proyecto/M.smegmatis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3405E-59A9-1542-A373-993BCB5202A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FF8282-87FA-154E-AB8D-481CF11F681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" activeTab="1" xr2:uid="{EFEE7E9E-8E80-B64C-8C3D-81F4E0F03CC5}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{EFEE7E9E-8E80-B64C-8C3D-81F4E0F03CC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fiting Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Fitting Data" sheetId="1" r:id="rId1"/>
     <sheet name="Validation Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D05387-AC87-2A40-B97D-42736BE1CD52}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CEF994-6B73-6E48-BC46-AAA98169A93E}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celeste/Desktop/Análisis de biosistemas/IIQ3733 Proyecto/M.smegmatis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorro\Desktop\M.smegmatis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FF8282-87FA-154E-AB8D-481CF11F681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55E494-3513-4179-AC81-047BD36EF5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{EFEE7E9E-8E80-B64C-8C3D-81F4E0F03CC5}"/>
+    <workbookView xWindow="1500" yWindow="14460" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{EFEE7E9E-8E80-B64C-8C3D-81F4E0F03CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitting Data" sheetId="1" r:id="rId1"/>
@@ -208,19 +208,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,18 +559,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D05387-AC87-2A40-B97D-42736BE1CD52}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>3.3333333333332624E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3.5</v>
       </c>
@@ -693,7 +693,7 @@
         <v>6.6666666666665248E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>7</v>
       </c>
@@ -734,7 +734,7 @@
         <v>3.3333333333335586E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>16</v>
       </c>
@@ -775,7 +775,7 @@
         <v>1.4529663145135541E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>19.5</v>
       </c>
@@ -816,7 +816,7 @@
         <v>6.6666666666665248E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>23</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1.2018504251546663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>24</v>
       </c>
@@ -898,7 +898,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>27.5</v>
       </c>
@@ -939,7 +939,7 @@
         <v>5.7735026918963915E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>31</v>
       </c>
@@ -980,7 +980,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>40</v>
       </c>
@@ -1031,19 +1031,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CEF994-6B73-6E48-BC46-AAA98169A93E}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>6.6666666666668206E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>7</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>3.3333333333332624E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>24</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>6.2803698347350997E-16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>31</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>6.2803698347350997E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>48</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>6.6666666666668206E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>55</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>3.3333333333332624E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>72</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>6.2803698347350997E-16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>79</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>6.6666666666668206E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>96</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>8.8191710368820606E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>99.5</v>
       </c>

--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorro\Desktop\M.smegmatis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55E494-3513-4179-AC81-047BD36EF5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84DA2E0-7876-408B-8742-7A5A512B6144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="14460" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{EFEE7E9E-8E80-B64C-8C3D-81F4E0F03CC5}"/>
+    <workbookView xWindow="624" yWindow="13584" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{EFEE7E9E-8E80-B64C-8C3D-81F4E0F03CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitting Data" sheetId="1" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
